--- a/CreateML Models/Cost Savings.xlsx
+++ b/CreateML Models/Cost Savings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skhiearth/Desktop/SolarX/CreateML Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C068169C-45B6-B844-8A8D-D73372A29A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BFA8B3-1366-324C-A9FA-19B06CA2A19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18220" windowHeight="16260" xr2:uid="{5BC59F8A-A70D-FB4E-8581-B9F15738DFB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18220" windowHeight="16260" xr2:uid="{5BC59F8A-A70D-FB4E-8581-B9F15738DFB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Total Roof Top Area (in Sq. m.)</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Average Solar Irridation (W/sq.m)</t>
+  </si>
+  <si>
+    <t>Roof Area</t>
   </si>
 </sst>
 </file>
@@ -391,21 +394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E51577D-795A-1443-BB9A-6DEBA71589C2}">
-  <dimension ref="A1:D291"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="2" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,13 +416,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -427,13 +433,17 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1156.3900000000001</v>
+        <f>(A2*B2)/100</f>
+        <v>10</v>
       </c>
       <c r="D2">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E2">
         <v>920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -441,13 +451,17 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1266.52</v>
+        <f t="shared" ref="C3:C66" si="0">(A3*B3)/100</f>
+        <v>10</v>
       </c>
       <c r="D3">
+        <v>1266.52</v>
+      </c>
+      <c r="E3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -455,13 +469,17 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D4">
+        <v>1046.26</v>
+      </c>
+      <c r="E4">
         <v>820</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -469,13 +487,17 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D5">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E5">
         <v>1840</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -483,13 +505,17 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D6">
+        <v>1266.52</v>
+      </c>
+      <c r="E6">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -497,13 +523,17 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D7">
+        <v>1046.26</v>
+      </c>
+      <c r="E7">
         <v>1640</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -511,13 +541,17 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="D8">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E8">
         <v>2300</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -525,13 +559,17 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="D9">
+        <v>1266.52</v>
+      </c>
+      <c r="E9">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
@@ -539,13 +577,17 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="D10">
+        <v>1046.26</v>
+      </c>
+      <c r="E10">
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -553,13 +595,17 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="D11">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E11">
         <v>2760</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -567,13 +613,17 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="D12">
+        <v>1266.52</v>
+      </c>
+      <c r="E12">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>100</v>
       </c>
@@ -581,13 +631,17 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="D13">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E13">
         <v>3220</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -595,13 +649,17 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="D14">
+        <v>1266.52</v>
+      </c>
+      <c r="E14">
         <v>3500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>100</v>
       </c>
@@ -609,13 +667,17 @@
         <v>35</v>
       </c>
       <c r="C15">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="D15">
+        <v>1046.26</v>
+      </c>
+      <c r="E15">
         <v>2870</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -623,13 +685,17 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D16">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E16">
         <v>3680</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100</v>
       </c>
@@ -637,13 +703,17 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D17">
+        <v>1266.52</v>
+      </c>
+      <c r="E17">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>100</v>
       </c>
@@ -651,13 +721,17 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D18">
+        <v>1046.26</v>
+      </c>
+      <c r="E18">
         <v>3280</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
@@ -665,13 +739,17 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="D19">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E19">
         <v>4140</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>100</v>
       </c>
@@ -679,13 +757,17 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="D20">
+        <v>1266.52</v>
+      </c>
+      <c r="E20">
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -693,13 +775,17 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="D21">
+        <v>1046.26</v>
+      </c>
+      <c r="E21">
         <v>3690</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -707,13 +793,17 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="D22">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E22">
         <v>4600</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>100</v>
       </c>
@@ -721,13 +811,17 @@
         <v>50</v>
       </c>
       <c r="C23">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="D23">
+        <v>1266.52</v>
+      </c>
+      <c r="E23">
         <v>5000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -735,13 +829,17 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="D24">
+        <v>1046.26</v>
+      </c>
+      <c r="E24">
         <v>4100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>100</v>
       </c>
@@ -749,13 +847,17 @@
         <v>60</v>
       </c>
       <c r="C25">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D25">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E25">
         <v>5520</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>100</v>
       </c>
@@ -763,13 +865,17 @@
         <v>60</v>
       </c>
       <c r="C26">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D26">
+        <v>1266.52</v>
+      </c>
+      <c r="E26">
         <v>6000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>100</v>
       </c>
@@ -777,13 +883,17 @@
         <v>60</v>
       </c>
       <c r="C27">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D27">
+        <v>1046.26</v>
+      </c>
+      <c r="E27">
         <v>4920</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -791,13 +901,17 @@
         <v>70</v>
       </c>
       <c r="C28">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="D28">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E28">
         <v>6440</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>100</v>
       </c>
@@ -805,13 +919,17 @@
         <v>70</v>
       </c>
       <c r="C29">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="D29">
+        <v>1266.52</v>
+      </c>
+      <c r="E29">
         <v>7000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>100</v>
       </c>
@@ -819,13 +937,17 @@
         <v>70</v>
       </c>
       <c r="C30">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="D30">
+        <v>1046.26</v>
+      </c>
+      <c r="E30">
         <v>5740</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>100</v>
       </c>
@@ -833,13 +955,17 @@
         <v>90</v>
       </c>
       <c r="C31">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="D31">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E31">
         <v>8280</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>100</v>
       </c>
@@ -847,13 +973,17 @@
         <v>90</v>
       </c>
       <c r="C32">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="D32">
+        <v>1266.52</v>
+      </c>
+      <c r="E32">
         <v>9000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>100</v>
       </c>
@@ -861,13 +991,17 @@
         <v>90</v>
       </c>
       <c r="C33">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="D33">
+        <v>1046.26</v>
+      </c>
+      <c r="E33">
         <v>7380</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>80</v>
       </c>
@@ -875,13 +1009,17 @@
         <v>20</v>
       </c>
       <c r="C34">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D34">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E34">
         <v>1472</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>80</v>
       </c>
@@ -889,13 +1027,17 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D35">
+        <v>1266.52</v>
+      </c>
+      <c r="E35">
         <v>1600</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>80</v>
       </c>
@@ -903,13 +1045,17 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D36">
+        <v>1046.26</v>
+      </c>
+      <c r="E36">
         <v>1312</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>80</v>
       </c>
@@ -917,13 +1063,17 @@
         <v>30</v>
       </c>
       <c r="C37">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="D37">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E37">
         <v>2208</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>80</v>
       </c>
@@ -931,13 +1081,17 @@
         <v>30</v>
       </c>
       <c r="C38">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="D38">
+        <v>1266.52</v>
+      </c>
+      <c r="E38">
         <v>2400</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>80</v>
       </c>
@@ -945,13 +1099,17 @@
         <v>30</v>
       </c>
       <c r="C39">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="D39">
+        <v>1046.26</v>
+      </c>
+      <c r="E39">
         <v>1968</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>80</v>
       </c>
@@ -959,13 +1117,17 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="D40">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E40">
         <v>2944</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>80</v>
       </c>
@@ -973,13 +1135,17 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="D41">
+        <v>1266.52</v>
+      </c>
+      <c r="E41">
         <v>3200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>80</v>
       </c>
@@ -987,13 +1153,17 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="D42">
+        <v>1046.26</v>
+      </c>
+      <c r="E42">
         <v>2624</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>80</v>
       </c>
@@ -1001,13 +1171,17 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D43">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E43">
         <v>3680</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>80</v>
       </c>
@@ -1015,13 +1189,17 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D44">
+        <v>1266.52</v>
+      </c>
+      <c r="E44">
         <v>4000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>80</v>
       </c>
@@ -1029,13 +1207,17 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D45">
+        <v>1046.26</v>
+      </c>
+      <c r="E45">
         <v>3280</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>80</v>
       </c>
@@ -1043,13 +1225,17 @@
         <v>60</v>
       </c>
       <c r="C46">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="D46">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E46">
         <v>4416</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>80</v>
       </c>
@@ -1057,13 +1243,17 @@
         <v>60</v>
       </c>
       <c r="C47">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="D47">
+        <v>1266.52</v>
+      </c>
+      <c r="E47">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>80</v>
       </c>
@@ -1071,13 +1261,17 @@
         <v>60</v>
       </c>
       <c r="C48">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="D48">
+        <v>1046.26</v>
+      </c>
+      <c r="E48">
         <v>3936</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>80</v>
       </c>
@@ -1085,13 +1279,17 @@
         <v>70</v>
       </c>
       <c r="C49">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="D49">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E49">
         <v>5152</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>80</v>
       </c>
@@ -1099,13 +1297,17 @@
         <v>70</v>
       </c>
       <c r="C50">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="D50">
+        <v>1266.52</v>
+      </c>
+      <c r="E50">
         <v>5600</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>80</v>
       </c>
@@ -1113,13 +1315,17 @@
         <v>70</v>
       </c>
       <c r="C51">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="D51">
+        <v>1046.26</v>
+      </c>
+      <c r="E51">
         <v>4592</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>80</v>
       </c>
@@ -1127,13 +1333,17 @@
         <v>80</v>
       </c>
       <c r="C52">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="D52">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E52">
         <v>5888</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>80</v>
       </c>
@@ -1141,13 +1351,17 @@
         <v>80</v>
       </c>
       <c r="C53">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="D53">
+        <v>1266.52</v>
+      </c>
+      <c r="E53">
         <v>6400</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>80</v>
       </c>
@@ -1155,13 +1369,17 @@
         <v>80</v>
       </c>
       <c r="C54">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="D54">
+        <v>1046.26</v>
+      </c>
+      <c r="E54">
         <v>5248</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>80</v>
       </c>
@@ -1169,13 +1387,17 @@
         <v>90</v>
       </c>
       <c r="C55">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="D55">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E55">
         <v>6624</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>80</v>
       </c>
@@ -1183,13 +1405,17 @@
         <v>90</v>
       </c>
       <c r="C56">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="D56">
+        <v>1266.52</v>
+      </c>
+      <c r="E56">
         <v>7200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>80</v>
       </c>
@@ -1197,13 +1423,17 @@
         <v>90</v>
       </c>
       <c r="C57">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="D57">
+        <v>1046.26</v>
+      </c>
+      <c r="E57">
         <v>5904</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>80</v>
       </c>
@@ -1211,13 +1441,17 @@
         <v>45</v>
       </c>
       <c r="C58">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="D58">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E58">
         <v>3312</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>80</v>
       </c>
@@ -1225,13 +1459,17 @@
         <v>45</v>
       </c>
       <c r="C59">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="D59">
+        <v>1266.52</v>
+      </c>
+      <c r="E59">
         <v>3600</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>80</v>
       </c>
@@ -1239,13 +1477,17 @@
         <v>45</v>
       </c>
       <c r="C60">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="D60">
+        <v>1046.26</v>
+      </c>
+      <c r="E60">
         <v>2952</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>80</v>
       </c>
@@ -1253,13 +1495,17 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="D61">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E61">
         <v>4784</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>80</v>
       </c>
@@ -1267,13 +1513,17 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="D62">
+        <v>1266.52</v>
+      </c>
+      <c r="E62">
         <v>5200</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>80</v>
       </c>
@@ -1281,13 +1531,17 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="D63">
+        <v>1046.26</v>
+      </c>
+      <c r="E63">
         <v>4264</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>80</v>
       </c>
@@ -1295,13 +1549,17 @@
         <v>75</v>
       </c>
       <c r="C64">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D64">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E64">
         <v>5520</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>80</v>
       </c>
@@ -1309,13 +1567,17 @@
         <v>75</v>
       </c>
       <c r="C65">
-        <v>1266.52</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D65">
+        <v>1266.52</v>
+      </c>
+      <c r="E65">
         <v>6000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>80</v>
       </c>
@@ -1323,13 +1585,17 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>1046.26</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D66">
+        <v>1046.26</v>
+      </c>
+      <c r="E66">
         <v>4920</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>80</v>
       </c>
@@ -1337,13 +1603,17 @@
         <v>95</v>
       </c>
       <c r="C67">
-        <v>1156.3900000000001</v>
+        <f t="shared" ref="C67:C130" si="1">(A67*B67)/100</f>
+        <v>76</v>
       </c>
       <c r="D67">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E67">
         <v>6992</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>80</v>
       </c>
@@ -1351,13 +1621,17 @@
         <v>95</v>
       </c>
       <c r="C68">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="D68">
+        <v>1266.52</v>
+      </c>
+      <c r="E68">
         <v>7600</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>80</v>
       </c>
@@ -1365,13 +1639,17 @@
         <v>95</v>
       </c>
       <c r="C69">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="D69">
+        <v>1046.26</v>
+      </c>
+      <c r="E69">
         <v>6232</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>90</v>
       </c>
@@ -1379,13 +1657,17 @@
         <v>15</v>
       </c>
       <c r="C70">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="D70">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E70">
         <v>1288</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>90</v>
       </c>
@@ -1393,13 +1675,17 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="D71">
+        <v>1266.52</v>
+      </c>
+      <c r="E71">
         <v>1400</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>90</v>
       </c>
@@ -1407,13 +1693,17 @@
         <v>15</v>
       </c>
       <c r="C72">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="D72">
+        <v>1046.26</v>
+      </c>
+      <c r="E72">
         <v>1148</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>90</v>
       </c>
@@ -1421,13 +1711,17 @@
         <v>20</v>
       </c>
       <c r="C73">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="D73">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E73">
         <v>1656</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>90</v>
       </c>
@@ -1435,13 +1729,17 @@
         <v>20</v>
       </c>
       <c r="C74">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="D74">
+        <v>1266.52</v>
+      </c>
+      <c r="E74">
         <v>1800</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>90</v>
       </c>
@@ -1449,13 +1747,17 @@
         <v>20</v>
       </c>
       <c r="C75">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="D75">
+        <v>1046.26</v>
+      </c>
+      <c r="E75">
         <v>1476</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>90</v>
       </c>
@@ -1463,13 +1765,17 @@
         <v>25</v>
       </c>
       <c r="C76">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
       </c>
       <c r="D76">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E76">
         <v>2116</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>90</v>
       </c>
@@ -1477,13 +1783,17 @@
         <v>25</v>
       </c>
       <c r="C77">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
       </c>
       <c r="D77">
+        <v>1266.52</v>
+      </c>
+      <c r="E77">
         <v>2300</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>90</v>
       </c>
@@ -1491,13 +1801,17 @@
         <v>25</v>
       </c>
       <c r="C78">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
       </c>
       <c r="D78">
+        <v>1046.26</v>
+      </c>
+      <c r="E78">
         <v>1886</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>90</v>
       </c>
@@ -1505,13 +1819,17 @@
         <v>30</v>
       </c>
       <c r="C79">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="D79">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E79">
         <v>2484</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>90</v>
       </c>
@@ -1519,13 +1837,17 @@
         <v>30</v>
       </c>
       <c r="C80">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="D80">
+        <v>1266.52</v>
+      </c>
+      <c r="E80">
         <v>2700</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>90</v>
       </c>
@@ -1533,13 +1855,17 @@
         <v>30</v>
       </c>
       <c r="C81">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="D81">
+        <v>1046.26</v>
+      </c>
+      <c r="E81">
         <v>2214</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>90</v>
       </c>
@@ -1547,13 +1873,17 @@
         <v>35</v>
       </c>
       <c r="C82">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>31.5</v>
       </c>
       <c r="D82">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E82">
         <v>2852</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>90</v>
       </c>
@@ -1561,13 +1891,17 @@
         <v>35</v>
       </c>
       <c r="C83">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>31.5</v>
       </c>
       <c r="D83">
+        <v>1266.52</v>
+      </c>
+      <c r="E83">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>90</v>
       </c>
@@ -1575,13 +1909,17 @@
         <v>35</v>
       </c>
       <c r="C84">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>31.5</v>
       </c>
       <c r="D84">
+        <v>1046.26</v>
+      </c>
+      <c r="E84">
         <v>2542</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>90</v>
       </c>
@@ -1589,13 +1927,17 @@
         <v>40</v>
       </c>
       <c r="C85">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="D85">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E85">
         <v>3312</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>90</v>
       </c>
@@ -1603,13 +1945,17 @@
         <v>40</v>
       </c>
       <c r="C86">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="D86">
+        <v>1266.52</v>
+      </c>
+      <c r="E86">
         <v>3600</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>90</v>
       </c>
@@ -1617,13 +1963,17 @@
         <v>40</v>
       </c>
       <c r="C87">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="D87">
+        <v>1046.26</v>
+      </c>
+      <c r="E87">
         <v>2952</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>90</v>
       </c>
@@ -1631,13 +1981,17 @@
         <v>45</v>
       </c>
       <c r="C88">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>40.5</v>
       </c>
       <c r="D88">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E88">
         <v>3680</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>90</v>
       </c>
@@ -1645,13 +1999,17 @@
         <v>45</v>
       </c>
       <c r="C89">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>40.5</v>
       </c>
       <c r="D89">
+        <v>1266.52</v>
+      </c>
+      <c r="E89">
         <v>4000</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1659,13 +2017,17 @@
         <v>45</v>
       </c>
       <c r="C90">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>40.5</v>
       </c>
       <c r="D90">
+        <v>1046.26</v>
+      </c>
+      <c r="E90">
         <v>3280</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1673,13 +2035,17 @@
         <v>50</v>
       </c>
       <c r="C91">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="D91">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E91">
         <v>4140</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1687,13 +2053,17 @@
         <v>50</v>
       </c>
       <c r="C92">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="D92">
+        <v>1266.52</v>
+      </c>
+      <c r="E92">
         <v>4500</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -1701,13 +2071,17 @@
         <v>50</v>
       </c>
       <c r="C93">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="D93">
+        <v>1046.26</v>
+      </c>
+      <c r="E93">
         <v>3690</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>90</v>
       </c>
@@ -1715,13 +2089,17 @@
         <v>55</v>
       </c>
       <c r="C94">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>49.5</v>
       </c>
       <c r="D94">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E94">
         <v>4600</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>90</v>
       </c>
@@ -1729,13 +2107,17 @@
         <v>55</v>
       </c>
       <c r="C95">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>49.5</v>
       </c>
       <c r="D95">
+        <v>1266.52</v>
+      </c>
+      <c r="E95">
         <v>5000</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>90</v>
       </c>
@@ -1743,13 +2125,17 @@
         <v>55</v>
       </c>
       <c r="C96">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>49.5</v>
       </c>
       <c r="D96">
+        <v>1046.26</v>
+      </c>
+      <c r="E96">
         <v>4100</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>90</v>
       </c>
@@ -1757,13 +2143,17 @@
         <v>60</v>
       </c>
       <c r="C97">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="D97">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E97">
         <v>4968</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>90</v>
       </c>
@@ -1771,13 +2161,17 @@
         <v>60</v>
       </c>
       <c r="C98">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="D98">
+        <v>1266.52</v>
+      </c>
+      <c r="E98">
         <v>5400</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>90</v>
       </c>
@@ -1785,13 +2179,17 @@
         <v>60</v>
       </c>
       <c r="C99">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="D99">
+        <v>1046.26</v>
+      </c>
+      <c r="E99">
         <v>4428</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>90</v>
       </c>
@@ -1799,13 +2197,17 @@
         <v>65</v>
       </c>
       <c r="C100">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>58.5</v>
       </c>
       <c r="D100">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E100">
         <v>5336</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>90</v>
       </c>
@@ -1813,13 +2215,17 @@
         <v>65</v>
       </c>
       <c r="C101">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>58.5</v>
       </c>
       <c r="D101">
+        <v>1266.52</v>
+      </c>
+      <c r="E101">
         <v>5800</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>90</v>
       </c>
@@ -1827,13 +2233,17 @@
         <v>65</v>
       </c>
       <c r="C102">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>58.5</v>
       </c>
       <c r="D102">
+        <v>1046.26</v>
+      </c>
+      <c r="E102">
         <v>4756</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>90</v>
       </c>
@@ -1841,13 +2251,17 @@
         <v>70</v>
       </c>
       <c r="C103">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="D103">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E103">
         <v>5796</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>90</v>
       </c>
@@ -1855,13 +2269,17 @@
         <v>70</v>
       </c>
       <c r="C104">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="D104">
+        <v>1266.52</v>
+      </c>
+      <c r="E104">
         <v>6300</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>90</v>
       </c>
@@ -1869,13 +2287,17 @@
         <v>70</v>
       </c>
       <c r="C105">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="D105">
+        <v>1046.26</v>
+      </c>
+      <c r="E105">
         <v>5166</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>90</v>
       </c>
@@ -1883,13 +2305,17 @@
         <v>75</v>
       </c>
       <c r="C106">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>67.5</v>
       </c>
       <c r="D106">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E106">
         <v>6256</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>90</v>
       </c>
@@ -1897,13 +2323,17 @@
         <v>75</v>
       </c>
       <c r="C107">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>67.5</v>
       </c>
       <c r="D107">
+        <v>1266.52</v>
+      </c>
+      <c r="E107">
         <v>6800</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>90</v>
       </c>
@@ -1911,13 +2341,17 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>67.5</v>
       </c>
       <c r="D108">
+        <v>1046.26</v>
+      </c>
+      <c r="E108">
         <v>5576</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>90</v>
       </c>
@@ -1925,13 +2359,17 @@
         <v>80</v>
       </c>
       <c r="C109">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="D109">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E109">
         <v>6624</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>90</v>
       </c>
@@ -1939,13 +2377,17 @@
         <v>80</v>
       </c>
       <c r="C110">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="D110">
+        <v>1266.52</v>
+      </c>
+      <c r="E110">
         <v>7200</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>90</v>
       </c>
@@ -1953,13 +2395,17 @@
         <v>80</v>
       </c>
       <c r="C111">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="D111">
+        <v>1046.26</v>
+      </c>
+      <c r="E111">
         <v>5904</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>90</v>
       </c>
@@ -1967,13 +2413,17 @@
         <v>85</v>
       </c>
       <c r="C112">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>76.5</v>
       </c>
       <c r="D112">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E112">
         <v>7084</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>90</v>
       </c>
@@ -1981,13 +2431,17 @@
         <v>85</v>
       </c>
       <c r="C113">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>76.5</v>
       </c>
       <c r="D113">
+        <v>1266.52</v>
+      </c>
+      <c r="E113">
         <v>7700</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>90</v>
       </c>
@@ -1995,13 +2449,17 @@
         <v>85</v>
       </c>
       <c r="C114">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>76.5</v>
       </c>
       <c r="D114">
+        <v>1046.26</v>
+      </c>
+      <c r="E114">
         <v>6314</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>90</v>
       </c>
@@ -2009,13 +2467,17 @@
         <v>90</v>
       </c>
       <c r="C115">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="D115">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E115">
         <v>7452</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>90</v>
       </c>
@@ -2023,13 +2485,17 @@
         <v>90</v>
       </c>
       <c r="C116">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="D116">
+        <v>1266.52</v>
+      </c>
+      <c r="E116">
         <v>8100</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>90</v>
       </c>
@@ -2037,13 +2503,17 @@
         <v>90</v>
       </c>
       <c r="C117">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="D117">
+        <v>1046.26</v>
+      </c>
+      <c r="E117">
         <v>6642</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>90</v>
       </c>
@@ -2051,13 +2521,17 @@
         <v>95</v>
       </c>
       <c r="C118">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>85.5</v>
       </c>
       <c r="D118">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E118">
         <v>7912</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>90</v>
       </c>
@@ -2065,13 +2539,17 @@
         <v>95</v>
       </c>
       <c r="C119">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>85.5</v>
       </c>
       <c r="D119">
+        <v>1266.52</v>
+      </c>
+      <c r="E119">
         <v>8600</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>90</v>
       </c>
@@ -2079,13 +2557,17 @@
         <v>95</v>
       </c>
       <c r="C120">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>85.5</v>
       </c>
       <c r="D120">
+        <v>1046.26</v>
+      </c>
+      <c r="E120">
         <v>7052</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>95</v>
       </c>
@@ -2093,13 +2575,17 @@
         <v>20</v>
       </c>
       <c r="C121">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="D121">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E121">
         <v>1748</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>95</v>
       </c>
@@ -2107,13 +2593,17 @@
         <v>20</v>
       </c>
       <c r="C122">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="D122">
+        <v>1266.52</v>
+      </c>
+      <c r="E122">
         <v>1900</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>95</v>
       </c>
@@ -2121,13 +2611,17 @@
         <v>20</v>
       </c>
       <c r="C123">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="D123">
+        <v>1046.26</v>
+      </c>
+      <c r="E123">
         <v>1558</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>95</v>
       </c>
@@ -2135,13 +2629,17 @@
         <v>30</v>
       </c>
       <c r="C124">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>28.5</v>
       </c>
       <c r="D124">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E124">
         <v>2668</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>95</v>
       </c>
@@ -2149,13 +2647,17 @@
         <v>30</v>
       </c>
       <c r="C125">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>28.5</v>
       </c>
       <c r="D125">
+        <v>1266.52</v>
+      </c>
+      <c r="E125">
         <v>2900</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>95</v>
       </c>
@@ -2163,13 +2665,17 @@
         <v>30</v>
       </c>
       <c r="C126">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>28.5</v>
       </c>
       <c r="D126">
+        <v>1046.26</v>
+      </c>
+      <c r="E126">
         <v>2378</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>95</v>
       </c>
@@ -2177,13 +2683,17 @@
         <v>40</v>
       </c>
       <c r="C127">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="D127">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E127">
         <v>3496</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>95</v>
       </c>
@@ -2191,13 +2701,17 @@
         <v>40</v>
       </c>
       <c r="C128">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="D128">
+        <v>1266.52</v>
+      </c>
+      <c r="E128">
         <v>3800</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>95</v>
       </c>
@@ -2205,13 +2719,17 @@
         <v>40</v>
       </c>
       <c r="C129">
-        <v>1046.26</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="D129">
+        <v>1046.26</v>
+      </c>
+      <c r="E129">
         <v>3116</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>95</v>
       </c>
@@ -2219,13 +2737,17 @@
         <v>50</v>
       </c>
       <c r="C130">
-        <v>1266.52</v>
+        <f t="shared" si="1"/>
+        <v>47.5</v>
       </c>
       <c r="D130">
+        <v>1266.52</v>
+      </c>
+      <c r="E130">
         <v>4800</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>95</v>
       </c>
@@ -2233,13 +2755,17 @@
         <v>50</v>
       </c>
       <c r="C131">
-        <v>1046.26</v>
+        <f t="shared" ref="C131:C194" si="2">(A131*B131)/100</f>
+        <v>47.5</v>
       </c>
       <c r="D131">
+        <v>1046.26</v>
+      </c>
+      <c r="E131">
         <v>3936</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>95</v>
       </c>
@@ -2247,13 +2773,17 @@
         <v>60</v>
       </c>
       <c r="C132">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="D132">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E132">
         <v>5244</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>95</v>
       </c>
@@ -2261,13 +2791,17 @@
         <v>60</v>
       </c>
       <c r="C133">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="D133">
+        <v>1266.52</v>
+      </c>
+      <c r="E133">
         <v>5700</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>95</v>
       </c>
@@ -2275,13 +2809,17 @@
         <v>60</v>
       </c>
       <c r="C134">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="D134">
+        <v>1046.26</v>
+      </c>
+      <c r="E134">
         <v>4674</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>95</v>
       </c>
@@ -2289,13 +2827,17 @@
         <v>70</v>
       </c>
       <c r="C135">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>66.5</v>
       </c>
       <c r="D135">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E135">
         <v>6164</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>95</v>
       </c>
@@ -2303,13 +2845,17 @@
         <v>70</v>
       </c>
       <c r="C136">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>66.5</v>
       </c>
       <c r="D136">
+        <v>1266.52</v>
+      </c>
+      <c r="E136">
         <v>6700</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>95</v>
       </c>
@@ -2317,13 +2863,17 @@
         <v>70</v>
       </c>
       <c r="C137">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>66.5</v>
       </c>
       <c r="D137">
+        <v>1046.26</v>
+      </c>
+      <c r="E137">
         <v>5494</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>50</v>
       </c>
@@ -2331,13 +2881,17 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D138">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E138">
         <v>460</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>50</v>
       </c>
@@ -2345,13 +2899,17 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D139">
+        <v>1266.52</v>
+      </c>
+      <c r="E139">
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>50</v>
       </c>
@@ -2359,13 +2917,17 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D140">
+        <v>1046.26</v>
+      </c>
+      <c r="E140">
         <v>410</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>50</v>
       </c>
@@ -2373,13 +2935,17 @@
         <v>20</v>
       </c>
       <c r="C141">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D141">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E141">
         <v>920</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>50</v>
       </c>
@@ -2387,13 +2953,17 @@
         <v>20</v>
       </c>
       <c r="C142">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D142">
+        <v>1266.52</v>
+      </c>
+      <c r="E142">
         <v>1000</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>50</v>
       </c>
@@ -2401,13 +2971,17 @@
         <v>20</v>
       </c>
       <c r="C143">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D143">
+        <v>1046.26</v>
+      </c>
+      <c r="E143">
         <v>820</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>50</v>
       </c>
@@ -2415,13 +2989,17 @@
         <v>30</v>
       </c>
       <c r="C144">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="D144">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E144">
         <v>1380</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>50</v>
       </c>
@@ -2429,13 +3007,17 @@
         <v>30</v>
       </c>
       <c r="C145">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="D145">
+        <v>1266.52</v>
+      </c>
+      <c r="E145">
         <v>1500</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>50</v>
       </c>
@@ -2443,13 +3025,17 @@
         <v>30</v>
       </c>
       <c r="C146">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="D146">
+        <v>1046.26</v>
+      </c>
+      <c r="E146">
         <v>1230</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>50</v>
       </c>
@@ -2457,13 +3043,17 @@
         <v>40</v>
       </c>
       <c r="C147">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="D147">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E147">
         <v>1840</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>50</v>
       </c>
@@ -2471,13 +3061,17 @@
         <v>40</v>
       </c>
       <c r="C148">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="D148">
+        <v>1266.52</v>
+      </c>
+      <c r="E148">
         <v>2000</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>50</v>
       </c>
@@ -2485,13 +3079,17 @@
         <v>40</v>
       </c>
       <c r="C149">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="D149">
+        <v>1046.26</v>
+      </c>
+      <c r="E149">
         <v>1640</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>50</v>
       </c>
@@ -2499,13 +3097,17 @@
         <v>50</v>
       </c>
       <c r="C150">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="D150">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E150">
         <v>2300</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>50</v>
       </c>
@@ -2513,13 +3115,17 @@
         <v>50</v>
       </c>
       <c r="C151">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="D151">
+        <v>1266.52</v>
+      </c>
+      <c r="E151">
         <v>2500</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>50</v>
       </c>
@@ -2527,13 +3133,17 @@
         <v>50</v>
       </c>
       <c r="C152">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="D152">
+        <v>1046.26</v>
+      </c>
+      <c r="E152">
         <v>2050</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>50</v>
       </c>
@@ -2541,13 +3151,17 @@
         <v>60</v>
       </c>
       <c r="C153">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="D153">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E153">
         <v>2760</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>50</v>
       </c>
@@ -2555,13 +3169,17 @@
         <v>60</v>
       </c>
       <c r="C154">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="D154">
+        <v>1266.52</v>
+      </c>
+      <c r="E154">
         <v>3000</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>50</v>
       </c>
@@ -2569,13 +3187,17 @@
         <v>60</v>
       </c>
       <c r="C155">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="D155">
+        <v>1046.26</v>
+      </c>
+      <c r="E155">
         <v>2460</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>50</v>
       </c>
@@ -2583,13 +3205,17 @@
         <v>70</v>
       </c>
       <c r="C156">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="D156">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E156">
         <v>3220</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>50</v>
       </c>
@@ -2597,13 +3223,17 @@
         <v>70</v>
       </c>
       <c r="C157">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="D157">
+        <v>1266.52</v>
+      </c>
+      <c r="E157">
         <v>3500</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>50</v>
       </c>
@@ -2611,13 +3241,17 @@
         <v>70</v>
       </c>
       <c r="C158">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="D158">
+        <v>1046.26</v>
+      </c>
+      <c r="E158">
         <v>2870</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>50</v>
       </c>
@@ -2625,13 +3259,17 @@
         <v>80</v>
       </c>
       <c r="C159">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="D159">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E159">
         <v>3680</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>50</v>
       </c>
@@ -2639,13 +3277,17 @@
         <v>80</v>
       </c>
       <c r="C160">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="D160">
+        <v>1266.52</v>
+      </c>
+      <c r="E160">
         <v>4000</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>50</v>
       </c>
@@ -2653,13 +3295,17 @@
         <v>80</v>
       </c>
       <c r="C161">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="D161">
+        <v>1046.26</v>
+      </c>
+      <c r="E161">
         <v>3280</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>50</v>
       </c>
@@ -2667,13 +3313,17 @@
         <v>88</v>
       </c>
       <c r="C162">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>44</v>
       </c>
       <c r="D162">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E162">
         <v>4048</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>50</v>
       </c>
@@ -2681,13 +3331,17 @@
         <v>88</v>
       </c>
       <c r="C163">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>44</v>
       </c>
       <c r="D163">
+        <v>1266.52</v>
+      </c>
+      <c r="E163">
         <v>4400</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>50</v>
       </c>
@@ -2695,13 +3349,17 @@
         <v>88</v>
       </c>
       <c r="C164">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>44</v>
       </c>
       <c r="D164">
+        <v>1046.26</v>
+      </c>
+      <c r="E164">
         <v>3608</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>40</v>
       </c>
@@ -2709,13 +3367,17 @@
         <v>15</v>
       </c>
       <c r="C165">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="D165">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E165">
         <v>552</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>40</v>
       </c>
@@ -2723,13 +3385,17 @@
         <v>15</v>
       </c>
       <c r="C166">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="D166">
+        <v>1266.52</v>
+      </c>
+      <c r="E166">
         <v>600</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>40</v>
       </c>
@@ -2737,13 +3403,17 @@
         <v>15</v>
       </c>
       <c r="C167">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="D167">
+        <v>1046.26</v>
+      </c>
+      <c r="E167">
         <v>492</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>40</v>
       </c>
@@ -2751,13 +3421,17 @@
         <v>20</v>
       </c>
       <c r="C168">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="D168">
+        <v>1266.52</v>
+      </c>
+      <c r="E168">
         <v>800</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>40</v>
       </c>
@@ -2765,13 +3439,17 @@
         <v>20</v>
       </c>
       <c r="C169">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="D169">
+        <v>1046.26</v>
+      </c>
+      <c r="E169">
         <v>656</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>40</v>
       </c>
@@ -2779,13 +3457,17 @@
         <v>25</v>
       </c>
       <c r="C170">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D170">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E170">
         <v>920</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>40</v>
       </c>
@@ -2793,13 +3475,17 @@
         <v>25</v>
       </c>
       <c r="C171">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D171">
+        <v>1266.52</v>
+      </c>
+      <c r="E171">
         <v>1000</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>40</v>
       </c>
@@ -2807,13 +3493,17 @@
         <v>25</v>
       </c>
       <c r="C172">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D172">
+        <v>1046.26</v>
+      </c>
+      <c r="E172">
         <v>820</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>40</v>
       </c>
@@ -2821,13 +3511,17 @@
         <v>30</v>
       </c>
       <c r="C173">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="D173">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E173">
         <v>1104</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>40</v>
       </c>
@@ -2835,13 +3529,17 @@
         <v>30</v>
       </c>
       <c r="C174">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="D174">
+        <v>1046.26</v>
+      </c>
+      <c r="E174">
         <v>984</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>40</v>
       </c>
@@ -2849,13 +3547,17 @@
         <v>35</v>
       </c>
       <c r="C175">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="D175">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E175">
         <v>1288</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>40</v>
       </c>
@@ -2863,13 +3565,17 @@
         <v>35</v>
       </c>
       <c r="C176">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="D176">
+        <v>1266.52</v>
+      </c>
+      <c r="E176">
         <v>1400</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>40</v>
       </c>
@@ -2877,13 +3583,17 @@
         <v>35</v>
       </c>
       <c r="C177">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="D177">
+        <v>1046.26</v>
+      </c>
+      <c r="E177">
         <v>1148</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>40</v>
       </c>
@@ -2891,13 +3601,17 @@
         <v>40</v>
       </c>
       <c r="C178">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="D178">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E178">
         <v>1472</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>40</v>
       </c>
@@ -2905,13 +3619,17 @@
         <v>40</v>
       </c>
       <c r="C179">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="D179">
+        <v>1266.52</v>
+      </c>
+      <c r="E179">
         <v>1600</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>40</v>
       </c>
@@ -2919,13 +3637,17 @@
         <v>40</v>
       </c>
       <c r="C180">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="D180">
+        <v>1046.26</v>
+      </c>
+      <c r="E180">
         <v>1312</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>40</v>
       </c>
@@ -2933,13 +3655,17 @@
         <v>45</v>
       </c>
       <c r="C181">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="D181">
+        <v>1266.52</v>
+      </c>
+      <c r="E181">
         <v>1800</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>40</v>
       </c>
@@ -2947,13 +3673,17 @@
         <v>45</v>
       </c>
       <c r="C182">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="D182">
+        <v>1046.26</v>
+      </c>
+      <c r="E182">
         <v>1476</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>40</v>
       </c>
@@ -2961,13 +3691,17 @@
         <v>50</v>
       </c>
       <c r="C183">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="D183">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E183">
         <v>1840</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>40</v>
       </c>
@@ -2975,13 +3709,17 @@
         <v>50</v>
       </c>
       <c r="C184">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="D184">
+        <v>1266.52</v>
+      </c>
+      <c r="E184">
         <v>2000</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>40</v>
       </c>
@@ -2989,13 +3727,17 @@
         <v>50</v>
       </c>
       <c r="C185">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="D185">
+        <v>1046.26</v>
+      </c>
+      <c r="E185">
         <v>1640</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>40</v>
       </c>
@@ -3003,13 +3745,17 @@
         <v>55</v>
       </c>
       <c r="C186">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="D186">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E186">
         <v>2024</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>40</v>
       </c>
@@ -3017,13 +3763,17 @@
         <v>55</v>
       </c>
       <c r="C187">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="D187">
+        <v>1266.52</v>
+      </c>
+      <c r="E187">
         <v>2200</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>40</v>
       </c>
@@ -3031,13 +3781,17 @@
         <v>55</v>
       </c>
       <c r="C188">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="D188">
+        <v>1046.26</v>
+      </c>
+      <c r="E188">
         <v>1804</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>40</v>
       </c>
@@ -3045,13 +3799,17 @@
         <v>60</v>
       </c>
       <c r="C189">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="D189">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E189">
         <v>2208</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>40</v>
       </c>
@@ -3059,13 +3817,17 @@
         <v>60</v>
       </c>
       <c r="C190">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="D190">
+        <v>1266.52</v>
+      </c>
+      <c r="E190">
         <v>2400</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>40</v>
       </c>
@@ -3073,13 +3835,17 @@
         <v>60</v>
       </c>
       <c r="C191">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="D191">
+        <v>1046.26</v>
+      </c>
+      <c r="E191">
         <v>1968</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>40</v>
       </c>
@@ -3087,13 +3853,17 @@
         <v>70</v>
       </c>
       <c r="C192">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="D192">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E192">
         <v>2576</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>40</v>
       </c>
@@ -3101,13 +3871,17 @@
         <v>70</v>
       </c>
       <c r="C193">
-        <v>1266.52</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="D193">
+        <v>1266.52</v>
+      </c>
+      <c r="E193">
         <v>2800</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>40</v>
       </c>
@@ -3115,13 +3889,17 @@
         <v>70</v>
       </c>
       <c r="C194">
-        <v>1046.26</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="D194">
+        <v>1046.26</v>
+      </c>
+      <c r="E194">
         <v>2296</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>40</v>
       </c>
@@ -3129,13 +3907,17 @@
         <v>80</v>
       </c>
       <c r="C195">
-        <v>1156.3900000000001</v>
+        <f t="shared" ref="C195:C258" si="3">(A195*B195)/100</f>
+        <v>32</v>
       </c>
       <c r="D195">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E195">
         <v>2944</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>40</v>
       </c>
@@ -3143,13 +3925,17 @@
         <v>80</v>
       </c>
       <c r="C196">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="D196">
+        <v>1266.52</v>
+      </c>
+      <c r="E196">
         <v>3200</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>40</v>
       </c>
@@ -3157,13 +3943,17 @@
         <v>80</v>
       </c>
       <c r="C197">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="D197">
+        <v>1046.26</v>
+      </c>
+      <c r="E197">
         <v>2624</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>40</v>
       </c>
@@ -3171,13 +3961,17 @@
         <v>85</v>
       </c>
       <c r="C198">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="D198">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E198">
         <v>3128</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>40</v>
       </c>
@@ -3185,13 +3979,17 @@
         <v>85</v>
       </c>
       <c r="C199">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="D199">
+        <v>1266.52</v>
+      </c>
+      <c r="E199">
         <v>3400</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>40</v>
       </c>
@@ -3199,13 +3997,17 @@
         <v>85</v>
       </c>
       <c r="C200">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="D200">
+        <v>1046.26</v>
+      </c>
+      <c r="E200">
         <v>2788</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>40</v>
       </c>
@@ -3213,13 +4015,17 @@
         <v>90</v>
       </c>
       <c r="C201">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="D201">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E201">
         <v>3312</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>40</v>
       </c>
@@ -3227,13 +4033,17 @@
         <v>90</v>
       </c>
       <c r="C202">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="D202">
+        <v>1266.52</v>
+      </c>
+      <c r="E202">
         <v>3600</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>40</v>
       </c>
@@ -3241,13 +4051,17 @@
         <v>90</v>
       </c>
       <c r="C203">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="D203">
+        <v>1046.26</v>
+      </c>
+      <c r="E203">
         <v>2952</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>60</v>
       </c>
@@ -3255,13 +4069,17 @@
         <v>33</v>
       </c>
       <c r="C204">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>19.8</v>
       </c>
       <c r="D204">
+        <v>1266.52</v>
+      </c>
+      <c r="E204">
         <v>2000</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>60</v>
       </c>
@@ -3269,13 +4087,17 @@
         <v>33</v>
       </c>
       <c r="C205">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>19.8</v>
       </c>
       <c r="D205">
+        <v>1046.26</v>
+      </c>
+      <c r="E205">
         <v>1640</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>60</v>
       </c>
@@ -3283,13 +4105,17 @@
         <v>48</v>
       </c>
       <c r="C206">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>28.8</v>
       </c>
       <c r="D206">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E206">
         <v>2668</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>60</v>
       </c>
@@ -3297,13 +4123,17 @@
         <v>48</v>
       </c>
       <c r="C207">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>28.8</v>
       </c>
       <c r="D207">
+        <v>1266.52</v>
+      </c>
+      <c r="E207">
         <v>2900</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>60</v>
       </c>
@@ -3311,13 +4141,17 @@
         <v>48</v>
       </c>
       <c r="C208">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>28.8</v>
       </c>
       <c r="D208">
+        <v>1046.26</v>
+      </c>
+      <c r="E208">
         <v>2378</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>60</v>
       </c>
@@ -3325,13 +4159,17 @@
         <v>64</v>
       </c>
       <c r="C209">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>38.4</v>
       </c>
       <c r="D209">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E209">
         <v>3496</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>60</v>
       </c>
@@ -3339,13 +4177,17 @@
         <v>64</v>
       </c>
       <c r="C210">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>38.4</v>
       </c>
       <c r="D210">
+        <v>1266.52</v>
+      </c>
+      <c r="E210">
         <v>3800</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>60</v>
       </c>
@@ -3353,13 +4195,17 @@
         <v>64</v>
       </c>
       <c r="C211">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>38.4</v>
       </c>
       <c r="D211">
+        <v>1046.26</v>
+      </c>
+      <c r="E211">
         <v>3116</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>60</v>
       </c>
@@ -3367,13 +4213,17 @@
         <v>76</v>
       </c>
       <c r="C212">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>45.6</v>
       </c>
       <c r="D212">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E212">
         <v>4232</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>60</v>
       </c>
@@ -3381,13 +4231,17 @@
         <v>76</v>
       </c>
       <c r="C213">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>45.6</v>
       </c>
       <c r="D213">
+        <v>1266.52</v>
+      </c>
+      <c r="E213">
         <v>4600</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>60</v>
       </c>
@@ -3395,13 +4249,17 @@
         <v>76</v>
       </c>
       <c r="C214">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>45.6</v>
       </c>
       <c r="D214">
+        <v>1046.26</v>
+      </c>
+      <c r="E214">
         <v>3772</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>72</v>
       </c>
@@ -3409,13 +4267,17 @@
         <v>56</v>
       </c>
       <c r="C215">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>40.32</v>
       </c>
       <c r="D215">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E215">
         <v>3680</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>72</v>
       </c>
@@ -3423,13 +4285,17 @@
         <v>56</v>
       </c>
       <c r="C216">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>40.32</v>
       </c>
       <c r="D216">
+        <v>1266.52</v>
+      </c>
+      <c r="E216">
         <v>4000</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>72</v>
       </c>
@@ -3437,13 +4303,17 @@
         <v>56</v>
       </c>
       <c r="C217">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>40.32</v>
       </c>
       <c r="D217">
+        <v>1046.26</v>
+      </c>
+      <c r="E217">
         <v>3280</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>37</v>
       </c>
@@ -3451,13 +4321,17 @@
         <v>49</v>
       </c>
       <c r="C218">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.13</v>
       </c>
       <c r="D218">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E218">
         <v>1656</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>37</v>
       </c>
@@ -3465,13 +4339,17 @@
         <v>49</v>
       </c>
       <c r="C219">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>18.13</v>
       </c>
       <c r="D219">
+        <v>1266.52</v>
+      </c>
+      <c r="E219">
         <v>1800</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>37</v>
       </c>
@@ -3479,13 +4357,17 @@
         <v>49</v>
       </c>
       <c r="C220">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>18.13</v>
       </c>
       <c r="D220">
+        <v>1046.26</v>
+      </c>
+      <c r="E220">
         <v>1476</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>37</v>
       </c>
@@ -3493,13 +4375,17 @@
         <v>39</v>
       </c>
       <c r="C221">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>14.43</v>
       </c>
       <c r="D221">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E221">
         <v>1288</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>37</v>
       </c>
@@ -3507,13 +4393,17 @@
         <v>39</v>
       </c>
       <c r="C222">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>14.43</v>
       </c>
       <c r="D222">
+        <v>1266.52</v>
+      </c>
+      <c r="E222">
         <v>1400</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>37</v>
       </c>
@@ -3521,13 +4411,17 @@
         <v>39</v>
       </c>
       <c r="C223">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>14.43</v>
       </c>
       <c r="D223">
+        <v>1046.26</v>
+      </c>
+      <c r="E223">
         <v>1148</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>37</v>
       </c>
@@ -3535,13 +4429,17 @@
         <v>26</v>
       </c>
       <c r="C224">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>9.6199999999999992</v>
       </c>
       <c r="D224">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E224">
         <v>920</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>37</v>
       </c>
@@ -3549,13 +4447,17 @@
         <v>26</v>
       </c>
       <c r="C225">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>9.6199999999999992</v>
       </c>
       <c r="D225">
+        <v>1266.52</v>
+      </c>
+      <c r="E225">
         <v>1000</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>37</v>
       </c>
@@ -3563,13 +4465,17 @@
         <v>26</v>
       </c>
       <c r="C226">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>9.6199999999999992</v>
       </c>
       <c r="D226">
+        <v>1046.26</v>
+      </c>
+      <c r="E226">
         <v>820</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>37</v>
       </c>
@@ -3577,13 +4483,17 @@
         <v>20</v>
       </c>
       <c r="C227">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>7.4</v>
       </c>
       <c r="D227">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E227">
         <v>644</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>37</v>
       </c>
@@ -3591,13 +4501,17 @@
         <v>20</v>
       </c>
       <c r="C228">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>7.4</v>
       </c>
       <c r="D228">
+        <v>1266.52</v>
+      </c>
+      <c r="E228">
         <v>700</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>37</v>
       </c>
@@ -3605,13 +4519,17 @@
         <v>20</v>
       </c>
       <c r="C229">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>7.4</v>
       </c>
       <c r="D229">
+        <v>1046.26</v>
+      </c>
+      <c r="E229">
         <v>574</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>37</v>
       </c>
@@ -3619,13 +4537,17 @@
         <v>24</v>
       </c>
       <c r="C230">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>8.8800000000000008</v>
       </c>
       <c r="D230">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E230">
         <v>828</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>37</v>
       </c>
@@ -3633,13 +4555,17 @@
         <v>24</v>
       </c>
       <c r="C231">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>8.8800000000000008</v>
       </c>
       <c r="D231">
+        <v>1266.52</v>
+      </c>
+      <c r="E231">
         <v>900</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>37</v>
       </c>
@@ -3647,13 +4573,17 @@
         <v>24</v>
       </c>
       <c r="C232">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>8.8800000000000008</v>
       </c>
       <c r="D232">
+        <v>1046.26</v>
+      </c>
+      <c r="E232">
         <v>738</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>52</v>
       </c>
@@ -3661,13 +4591,17 @@
         <v>24</v>
       </c>
       <c r="C233">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>12.48</v>
       </c>
       <c r="D233">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E233">
         <v>1104</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>52</v>
       </c>
@@ -3675,13 +4609,17 @@
         <v>24</v>
       </c>
       <c r="C234">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>12.48</v>
       </c>
       <c r="D234">
+        <v>1266.52</v>
+      </c>
+      <c r="E234">
         <v>1200</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>52</v>
       </c>
@@ -3689,13 +4627,17 @@
         <v>24</v>
       </c>
       <c r="C235">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>12.48</v>
       </c>
       <c r="D235">
+        <v>1046.26</v>
+      </c>
+      <c r="E235">
         <v>984</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>52</v>
       </c>
@@ -3703,13 +4645,17 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>5.2</v>
       </c>
       <c r="D236">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E236">
         <v>460</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>52</v>
       </c>
@@ -3717,13 +4663,17 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>5.2</v>
       </c>
       <c r="D237">
+        <v>1266.52</v>
+      </c>
+      <c r="E237">
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>52</v>
       </c>
@@ -3731,13 +4681,17 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>5.2</v>
       </c>
       <c r="D238">
+        <v>1046.26</v>
+      </c>
+      <c r="E238">
         <v>410</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>52</v>
       </c>
@@ -3745,13 +4699,17 @@
         <v>15</v>
       </c>
       <c r="C239">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>7.8</v>
       </c>
       <c r="D239">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E239">
         <v>736</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>52</v>
       </c>
@@ -3759,13 +4717,17 @@
         <v>15</v>
       </c>
       <c r="C240">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>7.8</v>
       </c>
       <c r="D240">
+        <v>1266.52</v>
+      </c>
+      <c r="E240">
         <v>800</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>52</v>
       </c>
@@ -3773,13 +4735,17 @@
         <v>15</v>
       </c>
       <c r="C241">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>7.8</v>
       </c>
       <c r="D241">
+        <v>1046.26</v>
+      </c>
+      <c r="E241">
         <v>656</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>52</v>
       </c>
@@ -3787,13 +4753,17 @@
         <v>18</v>
       </c>
       <c r="C242">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>9.36</v>
       </c>
       <c r="D242">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E242">
         <v>828</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>52</v>
       </c>
@@ -3801,13 +4771,17 @@
         <v>18</v>
       </c>
       <c r="C243">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>9.36</v>
       </c>
       <c r="D243">
+        <v>1266.52</v>
+      </c>
+      <c r="E243">
         <v>900</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>52</v>
       </c>
@@ -3815,13 +4789,17 @@
         <v>18</v>
       </c>
       <c r="C244">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>9.36</v>
       </c>
       <c r="D244">
+        <v>1046.26</v>
+      </c>
+      <c r="E244">
         <v>738</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>52</v>
       </c>
@@ -3829,13 +4807,17 @@
         <v>22</v>
       </c>
       <c r="C245">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>11.44</v>
       </c>
       <c r="D245">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E245">
         <v>1012</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>52</v>
       </c>
@@ -3843,13 +4825,17 @@
         <v>22</v>
       </c>
       <c r="C246">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>11.44</v>
       </c>
       <c r="D246">
+        <v>1266.52</v>
+      </c>
+      <c r="E246">
         <v>1100</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>52</v>
       </c>
@@ -3857,13 +4843,17 @@
         <v>22</v>
       </c>
       <c r="C247">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>11.44</v>
       </c>
       <c r="D247">
+        <v>1046.26</v>
+      </c>
+      <c r="E247">
         <v>902</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>85</v>
       </c>
@@ -3871,13 +4861,17 @@
         <v>51</v>
       </c>
       <c r="C248">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>43.35</v>
       </c>
       <c r="D248">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E248">
         <v>3956</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>85</v>
       </c>
@@ -3885,13 +4879,17 @@
         <v>51</v>
       </c>
       <c r="C249">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>43.35</v>
       </c>
       <c r="D249">
+        <v>1266.52</v>
+      </c>
+      <c r="E249">
         <v>4300</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>85</v>
       </c>
@@ -3899,13 +4897,17 @@
         <v>51</v>
       </c>
       <c r="C250">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>43.35</v>
       </c>
       <c r="D250">
+        <v>1046.26</v>
+      </c>
+      <c r="E250">
         <v>3526</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>85</v>
       </c>
@@ -3913,13 +4915,17 @@
         <v>57</v>
       </c>
       <c r="C251">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>48.45</v>
       </c>
       <c r="D251">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E251">
         <v>4416</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>85</v>
       </c>
@@ -3927,13 +4933,17 @@
         <v>57</v>
       </c>
       <c r="C252">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>48.45</v>
       </c>
       <c r="D252">
+        <v>1266.52</v>
+      </c>
+      <c r="E252">
         <v>4800</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>85</v>
       </c>
@@ -3941,13 +4951,17 @@
         <v>57</v>
       </c>
       <c r="C253">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>48.45</v>
       </c>
       <c r="D253">
+        <v>1046.26</v>
+      </c>
+      <c r="E253">
         <v>3936</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>85</v>
       </c>
@@ -3955,13 +4969,17 @@
         <v>63</v>
       </c>
       <c r="C254">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>53.55</v>
       </c>
       <c r="D254">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E254">
         <v>4968</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>85</v>
       </c>
@@ -3969,13 +4987,17 @@
         <v>63</v>
       </c>
       <c r="C255">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>53.55</v>
       </c>
       <c r="D255">
+        <v>1266.52</v>
+      </c>
+      <c r="E255">
         <v>5400</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>85</v>
       </c>
@@ -3983,13 +5005,17 @@
         <v>63</v>
       </c>
       <c r="C256">
-        <v>1046.26</v>
+        <f t="shared" si="3"/>
+        <v>53.55</v>
       </c>
       <c r="D256">
+        <v>1046.26</v>
+      </c>
+      <c r="E256">
         <v>4428</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>85</v>
       </c>
@@ -3997,13 +5023,17 @@
         <v>69</v>
       </c>
       <c r="C257">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="3"/>
+        <v>58.65</v>
       </c>
       <c r="D257">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E257">
         <v>5428</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>85</v>
       </c>
@@ -4011,13 +5041,17 @@
         <v>69</v>
       </c>
       <c r="C258">
-        <v>1266.52</v>
+        <f t="shared" si="3"/>
+        <v>58.65</v>
       </c>
       <c r="D258">
+        <v>1266.52</v>
+      </c>
+      <c r="E258">
         <v>5900</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>85</v>
       </c>
@@ -4025,13 +5059,17 @@
         <v>75</v>
       </c>
       <c r="C259">
-        <v>1156.3900000000001</v>
+        <f t="shared" ref="C259:C291" si="4">(A259*B259)/100</f>
+        <v>63.75</v>
       </c>
       <c r="D259">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E259">
         <v>5888</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>85</v>
       </c>
@@ -4039,13 +5077,17 @@
         <v>75</v>
       </c>
       <c r="C260">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>63.75</v>
       </c>
       <c r="D260">
+        <v>1266.52</v>
+      </c>
+      <c r="E260">
         <v>6400</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>85</v>
       </c>
@@ -4053,13 +5095,17 @@
         <v>75</v>
       </c>
       <c r="C261">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>63.75</v>
       </c>
       <c r="D261">
+        <v>1046.26</v>
+      </c>
+      <c r="E261">
         <v>5248</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>120</v>
       </c>
@@ -4067,13 +5113,17 @@
         <v>75</v>
       </c>
       <c r="C262">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="D262">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E262">
         <v>8280</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>120</v>
       </c>
@@ -4081,13 +5131,17 @@
         <v>75</v>
       </c>
       <c r="C263">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="D263">
+        <v>1266.52</v>
+      </c>
+      <c r="E263">
         <v>9000</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>120</v>
       </c>
@@ -4095,13 +5149,17 @@
         <v>75</v>
       </c>
       <c r="C264">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="D264">
+        <v>1046.26</v>
+      </c>
+      <c r="E264">
         <v>7380</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>120</v>
       </c>
@@ -4109,13 +5167,17 @@
         <v>65</v>
       </c>
       <c r="C265">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="D265">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E265">
         <v>7176</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>120</v>
       </c>
@@ -4123,13 +5185,17 @@
         <v>65</v>
       </c>
       <c r="C266">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="D266">
+        <v>1266.52</v>
+      </c>
+      <c r="E266">
         <v>7800</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>120</v>
       </c>
@@ -4137,13 +5203,17 @@
         <v>65</v>
       </c>
       <c r="C267">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="D267">
+        <v>1046.26</v>
+      </c>
+      <c r="E267">
         <v>6396</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>120</v>
       </c>
@@ -4151,13 +5221,17 @@
         <v>60</v>
       </c>
       <c r="C268">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="D268">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E268">
         <v>6624</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>120</v>
       </c>
@@ -4165,13 +5239,17 @@
         <v>60</v>
       </c>
       <c r="C269">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="D269">
+        <v>1266.52</v>
+      </c>
+      <c r="E269">
         <v>7200</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>120</v>
       </c>
@@ -4179,13 +5257,17 @@
         <v>60</v>
       </c>
       <c r="C270">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="D270">
+        <v>1046.26</v>
+      </c>
+      <c r="E270">
         <v>5904</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>120</v>
       </c>
@@ -4193,13 +5275,17 @@
         <v>55</v>
       </c>
       <c r="C271">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
       <c r="D271">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E271">
         <v>6072</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>120</v>
       </c>
@@ -4207,13 +5293,17 @@
         <v>55</v>
       </c>
       <c r="C272">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
       <c r="D272">
+        <v>1266.52</v>
+      </c>
+      <c r="E272">
         <v>6600</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>120</v>
       </c>
@@ -4221,13 +5311,17 @@
         <v>55</v>
       </c>
       <c r="C273">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
       <c r="D273">
+        <v>1046.26</v>
+      </c>
+      <c r="E273">
         <v>5412</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>120</v>
       </c>
@@ -4235,13 +5329,17 @@
         <v>50</v>
       </c>
       <c r="C274">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="D274">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E274">
         <v>5520</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>120</v>
       </c>
@@ -4249,13 +5347,17 @@
         <v>50</v>
       </c>
       <c r="C275">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="D275">
+        <v>1266.52</v>
+      </c>
+      <c r="E275">
         <v>6000</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>120</v>
       </c>
@@ -4263,13 +5365,17 @@
         <v>50</v>
       </c>
       <c r="C276">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="D276">
+        <v>1046.26</v>
+      </c>
+      <c r="E276">
         <v>4920</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>120</v>
       </c>
@@ -4277,13 +5383,17 @@
         <v>45</v>
       </c>
       <c r="C277">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="D277">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E277">
         <v>4968</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>120</v>
       </c>
@@ -4291,13 +5401,17 @@
         <v>45</v>
       </c>
       <c r="C278">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="D278">
+        <v>1266.52</v>
+      </c>
+      <c r="E278">
         <v>5400</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>120</v>
       </c>
@@ -4305,13 +5419,17 @@
         <v>45</v>
       </c>
       <c r="C279">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="D279">
+        <v>1046.26</v>
+      </c>
+      <c r="E279">
         <v>4428</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>120</v>
       </c>
@@ -4319,13 +5437,17 @@
         <v>10</v>
       </c>
       <c r="C280">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="D280">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E280">
         <v>1104</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>120</v>
       </c>
@@ -4333,13 +5455,17 @@
         <v>10</v>
       </c>
       <c r="C281">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="D281">
+        <v>1266.52</v>
+      </c>
+      <c r="E281">
         <v>1200</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>120</v>
       </c>
@@ -4347,13 +5473,17 @@
         <v>10</v>
       </c>
       <c r="C282">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="D282">
+        <v>1046.26</v>
+      </c>
+      <c r="E282">
         <v>984</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>120</v>
       </c>
@@ -4361,13 +5491,17 @@
         <v>20</v>
       </c>
       <c r="C283">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="D283">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E283">
         <v>2208</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>120</v>
       </c>
@@ -4375,13 +5509,17 @@
         <v>20</v>
       </c>
       <c r="C284">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="D284">
+        <v>1266.52</v>
+      </c>
+      <c r="E284">
         <v>2400</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>120</v>
       </c>
@@ -4389,13 +5527,17 @@
         <v>20</v>
       </c>
       <c r="C285">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="D285">
+        <v>1046.26</v>
+      </c>
+      <c r="E285">
         <v>1968</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>500</v>
       </c>
@@ -4403,13 +5545,17 @@
         <v>20</v>
       </c>
       <c r="C286">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D286">
+        <v>1266.52</v>
+      </c>
+      <c r="E286">
         <v>10000</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>500</v>
       </c>
@@ -4417,13 +5563,17 @@
         <v>20</v>
       </c>
       <c r="C287">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D287">
+        <v>1046.26</v>
+      </c>
+      <c r="E287">
         <v>8200</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>500</v>
       </c>
@@ -4431,13 +5581,17 @@
         <v>25</v>
       </c>
       <c r="C288">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="D288">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E288">
         <v>11500</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>500</v>
       </c>
@@ -4445,13 +5599,17 @@
         <v>25</v>
       </c>
       <c r="C289">
-        <v>1046.26</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="D289">
+        <v>1046.26</v>
+      </c>
+      <c r="E289">
         <v>10250</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>500</v>
       </c>
@@ -4459,13 +5617,17 @@
         <v>35</v>
       </c>
       <c r="C290">
-        <v>1156.3900000000001</v>
+        <f t="shared" si="4"/>
+        <v>175</v>
       </c>
       <c r="D290">
+        <v>1156.3900000000001</v>
+      </c>
+      <c r="E290">
         <v>16100</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>500</v>
       </c>
@@ -4473,9 +5635,13 @@
         <v>35</v>
       </c>
       <c r="C291">
-        <v>1266.52</v>
+        <f t="shared" si="4"/>
+        <v>175</v>
       </c>
       <c r="D291">
+        <v>1266.52</v>
+      </c>
+      <c r="E291">
         <v>17500</v>
       </c>
     </row>
